--- a/rante_kalender/data/data.xlsx
+++ b/rante_kalender/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robras\projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robras\projekt\git\rosalomon.github.io\rante_kalender\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106A7388-644F-4441-95D2-3F2D6F62E989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CC1FBD-7AEA-4F22-B83F-DD0401FE2EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15435" xr2:uid="{11763C07-B32A-418A-AC7E-6CC445581B21}"/>
+    <workbookView xWindow="975" yWindow="2220" windowWidth="36000" windowHeight="19290" xr2:uid="{11763C07-B32A-418A-AC7E-6CC445581B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -86,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +406,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -425,8 +429,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>20240508</v>
+      <c r="B2" s="1">
+        <v>45420</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>

--- a/rante_kalender/data/data.xlsx
+++ b/rante_kalender/data/data.xlsx
@@ -8,35 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robras\projekt\git\rosalomon.github.io\rante_kalender\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CC1FBD-7AEA-4F22-B83F-DD0401FE2EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5BB6C-0B81-4D69-A01C-604DC2C8BD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="2220" windowWidth="36000" windowHeight="19290" xr2:uid="{11763C07-B32A-418A-AC7E-6CC445581B21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>Titel</t>
   </si>
@@ -51,6 +35,491 @@
   </si>
   <si>
     <t>Riksbanken lämnar besked om styrräntan</t>
+  </si>
+  <si>
+    <t>Penningpolitiskt möte: Beslut om penningpolitiken inklusive styrräntan</t>
+  </si>
+  <si>
+    <t>maj 2024</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-07/
+Summary: Direktionen sammanträder. Penningpolitiskt möte där direktionen fattar beslut om penningpolitiken inklusive styrräntan.
+Lägg till i kalender
+Penningpolitiskt möte: Beslut om penningpolitiken inklusive styrräntan
+(ics)</t>
+  </si>
+  <si>
+    <t>Publicering av penningpolitiskt beslut, inklusive styrräntan, och penningpolitisk uppdatering</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-08/
+Summary: Direktionens penningpolitiska beslut inklusive beslut om styrräntan publiceras tillsammans med penningpolitisk uppdatering maj 2024.
+Beslutet om styrräntans nivå tillämpas från 15 maj 2024.
+Lägg till i kalender
+Publicering av penningpolitiskt beslut, inklusive styrräntan, och penningpolitisk uppdatering
+(ics)</t>
+  </si>
+  <si>
+    <t>Pressträff om det penningpolitiska beslutet i maj</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-082/
+Summary: Riksbanken arrangerar en pressträff om det penningpolitiska beslutet. Pressträffen äger rum på Riksbanken, Brunkebergstorg 11. För att delta krävs presslegitimation eller motsvarande. Pressträffen direktsänds på riksbank.se och på Riksbankens Youtube-kanal.
+Plats: Riksbanken, Brunkebergstorg
+Lägg till i kalender
+Pressträff om det penningpolitiska beslutet i maj
+(ics)</t>
+  </si>
+  <si>
+    <t>Breman: Ekonomiska läget och aktuell penningpolitik</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-14/
+Summary: Förste vice riksbankschef Anna Breman talar om det ekonomiska läget och aktuell penningpolitik under ett seminarium anordnat av Aktiespararna Östermalm/Djurgården.
+Läs mer om seminariet här.
+För mer information, kontakta Catharina Lagerstam via e-post catharina.lagerstam@gmail.com
+Plats: Etnografiska Museet, Djurgårdsbrunnsvägen 34 - Stockholm
+Arrangör: Aktiespararna Östermalm/Djurgården
+Lägg till i kalender
+Breman: Ekonomiska läget och aktuell penningpolitik
+(ics)</t>
+  </si>
+  <si>
+    <t>Direktionen sammanträder</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-15/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Penningpolitiskt protokoll publiceras</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-152/
+Summary: Protokoll från penningpolitiskt möte den 7 maj 2024 publiceras.
+Lägg till i kalender
+Penningpolitiskt protokoll publiceras
+(ics)</t>
+  </si>
+  <si>
+    <t>Flodén: Riksbankens syn på konjunkturutvecklingen</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-16/
+Summary: Vice riksbankschef Martin Flodén talar om Riksbankens syn på konjunkturutvecklingen under "DI Bank 2024", arrangerat av Dagens Industri.
+Läs mer om evenemanget här. 
+För mer information, kontakta Patrik Jönsson via e-post patrik.jonsson@di.se
+Martin Flodén finns tillgänglig på plats för kommentarer till media efter föredraget. Kontakta presschef Tomas Lundberg, tomas.lundberg@riksbank.se , eller 070-2466157 för mer information.
+Plats: Grand Hôtel, Södra Blasieholmshamnen 8 - Stockholm
+Arrangör: Dagens Industri
+Lägg till i kalender
+Flodén: Riksbankens syn på konjunkturutvecklingen
+(ics)</t>
+  </si>
+  <si>
+    <t>Thedéen: Ekonomiska läget och aktuell penningpolitik</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-172/
+Summary: Riksbankschef Erik Thedéen talar om det ekonomiska läget och aktuell penningpolitik under Kammarkollegiets kapitalmarknadsdag. En sammanfattning kommer att publiceras. 
+En sammanfattning publiceras.
+För mer information, kontakta Johan Eliaeson via e-post Johan.Eliaeson@Kammarkollegiet.se
+Erik Thedéen finns tillgänglig på plats för kommentarer till media efter föredraget. Kontakta presschef Tomas Lundberg, tomas.lundberg@riksbank.se , eller 070-2466157 för mer information.
+Plats: Livrustkammaren, Slottsbacken 4 - Stockholm
+Arrangör: Kammarkollegiet
+Lägg till i kalender
+Thedéen: Ekonomiska läget och aktuell penningpolitik
+(ics)</t>
+  </si>
+  <si>
+    <t>Riksbanksfullmäktige sammanträder</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-17/
+Summary: Dagordning
+Lägg till i kalender
+Riksbanksfullmäktige sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Thedéen: Reflektioner kring de senaste årens höga inflation</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-20/
+Summary: Riksbankschef Erik Thedéen reflekterar kring de senaste årens höga inflation under Nationalekonomiska Föreningens årsmöte.
+Erik Thedéen finns tillgänglig på plats för kommentarer till media efter föredraget. Kontakta pressekreterare Susanne Meyer, susanne.meyer@riksbank.se, eller 070-2466167 för mer information.
+Läs mer om evenemanget här.
+Plats: Swedbank. Regeringsgatan 30-32, hisshall B, plan 5, mötesrum Vaxholm - Stockholm
+Arrangör: Nationalekonomiska Föreningen
+Lägg till i kalender
+Thedéen: Reflektioner kring de senaste årens höga inflation
+(ics)</t>
+  </si>
+  <si>
+    <t>Jansson: Ekonomiska läget och aktuell penningpolitik</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-202/
+Summary: Vice riksbankschef Per Jansson talar om det ekonomiska läget och aktuell penningpolitik under konferensen "Fonddagen 2024", anordnad av Fondbolagens Förening. Läs mer om konferensen här.
+Per Jansson finns tillgänglig på plats för kommentarer till media efter föredraget. Kontakta pressekreterare Charlotta Edler, charlotta.edler@riksbank.se, eller 076-725 66 24 för mer information.
+För mer information, kontakta Eva Reimers via e-post eva.reimers@fondbolagen.se
+Plats: Eric Erikssonhallen, Kyrkslingan 2 - Stockholm
+Arrangör: Fondbolagens Förening
+Lägg till i kalender
+Jansson: Ekonomiska läget och aktuell penningpolitik
+(ics)</t>
+  </si>
+  <si>
+    <t>Bunge: Ekonomiska läget och aktuell penningpolitik</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-21/
+Summary: Vice riksbankschef Aino Bunge talar om det ekonomiska läget och aktuell penningpolitik under ett seminarium anordnat av ODIN Fonder. 
+Plats: Scandic Anglais, Humlegårdsgatan 23 - Stockholm
+Arrangör: ODIN Fonder
+Lägg till i kalender
+Bunge: Ekonomiska läget och aktuell penningpolitik
+(ics)</t>
+  </si>
+  <si>
+    <t>Thedéen: Ontario Securities Commission</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-22/
+Summary: Riksbankschef Erik Thedéen håller ett keynote-tal under konferensen "OSC Dialogue 2024", anordnad av Ontario Securities Commission.
+Läs mer om konferensen här.
+För mer information, kontakta arrangörerna via e-post media_inquiries@osc.gov.on.ca
+Plats: Metro Toronto Convention Centre, 255 Front St W, Toronto ON M5V 2W6
+Arrangör: Ontario Securities Commission
+Lägg till i kalender
+Thedéen: Ontario Securities Commission
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-23/
+Summary: Vice riksbankschef Aino Bunge talar om det ekonomiska läget och aktuell penningpolitik under seminariet "Fastighetsdagen Stockholm", anordnat av Fastighetsvärlden.
+Plats: Grand Hôtel, Södra Blasieholmshamnen 8  - Stockholm
+Arrangör: Fastighetsvärlden
+Lägg till i kalender
+Bunge: Ekonomiska läget och aktuell penningpolitik
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-27/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Finansiell stabilitet 2024:1 publiceras</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-29/
+Summary: Årets första finansiella stabilitetsrapport publiceras.
+Lägg till i kalender
+Finansiell stabilitet 2024:1 publiceras
+(ics)</t>
+  </si>
+  <si>
+    <t>Pressträff om finansiell stabilitetsrapport</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-292/
+Summary: Riksbanken håller en pressträff om finansiell stabilitet. För att delta krävs presslegitimation eller motsvarande. Presskonferensen direktsänds på riksbank.se och på Riksbankens Youtube-kanal.
+Plats: Riksbanken, Brunkebergstorg
+Lägg till i kalender
+Pressträff om finansiell stabilitetsrapport
+(ics)</t>
+  </si>
+  <si>
+    <t>Betalningsrådet och Kontanthanteringsrådet sammanträder</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-05-31/
+Summary: Gemensamt möte i Betalningsrådet och Kontanthanteringsrådet. Läs mer om Betalningsrådet och Kontanthanteringsrådet.
+Plats: Riksbanken
+Lägg till i kalender
+Betalningsrådet och Kontanthanteringsrådet sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>jun 2024</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-06-05/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-06-14/
+Summary: Lägg till i kalender
+Riksbanksfullmäktige sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-06-18/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-06-24/
+Summary: Direktionen sammanträder. Penningpolitiskt möte där direktionen fattar beslut om penningpolitiken inklusive styrräntan.
+Lägg till i kalender
+Penningpolitiskt möte: Beslut om penningpolitiken inklusive styrräntan
+(ics)</t>
+  </si>
+  <si>
+    <t>Publicering av penningpolitiskt beslut, inklusive styrräntan, och penningpolitisk rapport</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-06-27/
+Summary: Direktionens penningpolitiska beslut inklusive beslut om styrräntan publiceras tillsammans med penningpolitisk rapport juni 2024.
+Beslutet om styrräntans nivå tillämpas från 3 juli 2024.
+Lägg till i kalender
+Publicering av penningpolitiskt beslut, inklusive styrräntan, och penningpolitisk rapport
+(ics)</t>
+  </si>
+  <si>
+    <t>Pressträff om det penningpolitiska beslutet i juni</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-06-272/
+Summary: Riksbanken arrangerar en pressträff om det penningpolitiska beslutet. Pressträffen äger rum på Riksbanken, Brunkebergstorg 11. För att delta krävs presslegitimation eller motsvarande. Pressträffen direktsänds på riksbank.se och på Riksbankens Youtube-kanal.
+Plats: Riksbanken, Brunkebergstorg
+Lägg till i kalender
+Pressträff om det penningpolitiska beslutet i juni
+(ics)</t>
+  </si>
+  <si>
+    <t>jul 2024</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-07-03/
+Summary: Protokoll från penningpolitiskt möte den 26 juni 2024 publiceras.
+Lägg till i kalender
+Penningpolitiskt protokoll publiceras
+(ics)</t>
+  </si>
+  <si>
+    <t>aug 2024</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-08-19/
+Summary: Direktionen sammanträder. Penningpolitiskt möte där direktionen fattar beslut om penningpolitiken inklusive styrräntan.
+Lägg till i kalender
+Penningpolitiskt möte: Beslut om penningpolitiken inklusive styrräntan
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-08-20/
+Summary: Direktionens penningpolitiska beslut inklusive beslut om styrräntan publiceras tillsammans med penningpolitisk uppdatering augusti 2024.
+Beslutet om styrräntans nivå tillämpas från 21 augusti 2024.
+Lägg till i kalender
+Publicering av penningpolitiskt beslut, inklusive styrräntan, och penningpolitisk uppdatering
+(ics)</t>
+  </si>
+  <si>
+    <t>Pressträff om det penningpolitiska beslutet i augusti</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-08-202/
+Summary: Riksbanken arrangerar en pressträff om det penningpolitiska beslutet. Pressträffen äger rum på Riksbanken, Brunkebergstorg 11. För att delta krävs presslegitimation eller motsvarande. Pressträffen direktsänds på riksbank.se och på Riksbankens Youtube-kanal.
+Plats: Riksbanken, Brunkebergstorg
+Lägg till i kalender
+Pressträff om det penningpolitiska beslutet i augusti
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-08-26/
+Summary: Protokoll från penningpolitiskt möte den 19 augusti 2024 publiceras.
+Lägg till i kalender
+Penningpolitiskt protokoll publiceras
+(ics)</t>
+  </si>
+  <si>
+    <t>sep 2024</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-09-04/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-09-18/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-09-24/
+Summary: Direktionen sammanträder. Penningpolitiskt möte där direktionen fattar beslut om penningpolitiken inklusive styrräntan.
+Lägg till i kalender
+Penningpolitiskt möte: Beslut om penningpolitiken inklusive styrräntan
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-09-25/
+Summary: Direktionens penningpolitiska beslut inklusive beslut om styrräntan publiceras tillsammans med penningpolitisk rapport september 2024.
+Beslutet om styrräntans nivå tillämpas från 2 oktober 2024.
+Lägg till i kalender
+Publicering av penningpolitiskt beslut, inklusive styrräntan, och penningpolitisk rapport
+(ics)</t>
+  </si>
+  <si>
+    <t>Pressträff om det penningpolitiska beslutet i september</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-09-252/
+Summary: Riksbanken arrangerar en pressträff om det penningpolitiska beslutet. Pressträffen äger rum på Riksbanken, Brunkebergstorg 11. För att delta krävs presslegitimation eller motsvarande. Pressträffen direktsänds på riksbank.se och på Riksbankens Youtube-kanal.
+Plats: Riksbanken, Brunkebergstorg
+Lägg till i kalender
+Pressträff om det penningpolitiska beslutet i september
+(ics)</t>
+  </si>
+  <si>
+    <t>okt 2024</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-10-01/
+Summary: Protokoll från penningpolitiskt möte den 24 september 2024 publiceras.
+Lägg till i kalender
+Penningpolitiskt protokoll publiceras
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-10-02/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-10-16/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-10-30/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>nov 2024</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-11-06/
+Summary: Direktionen sammanträder. Penningpolitiskt möte där direktionen fattar beslut om penningpolitiken inklusive styrräntan.
+Lägg till i kalender
+Penningpolitiskt möte: Beslut om penningpolitiken inklusive styrräntan
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-11-07/
+Summary: Direktionens penningpolitiska beslut inklusive beslut om styrräntan publiceras tillsammans med penningpolitisk uppdatering november 2024.
+Beslutet om styrräntans nivå tillämpas från 13 november 2024.
+Lägg till i kalender
+Publicering av penningpolitiskt beslut, inklusive styrräntan, och penningpolitisk uppdatering
+(ics)</t>
+  </si>
+  <si>
+    <t>Pressträff om det penningpolitiska beslutet i november</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-11-072/
+Summary: Riksbanken arrangerar en pressträff i Falun om det penningpolitiska beslutet. Pressträffen äger rum på Magasinet, Tullkammaregatan 12. För att delta krävs presslegitimation eller motsvarande. Pressträffen direktsänds på riksbank.se och på Riksbankens Youtube-kanal.
+Plats: Riksbanken, Brunkebergstorg
+Lägg till i kalender
+Pressträff om det penningpolitiska beslutet i november
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-11-13/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-11-132/
+Summary: Protokoll från penningpolitiskt möte den 6 november 2024 publiceras.
+Lägg till i kalender
+Penningpolitiskt protokoll publiceras
+(ics)</t>
+  </si>
+  <si>
+    <t>Finansiell stabilitet 2024:2 publiceras</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-11-14/
+Summary: Årets andra finansiella stabilitetsrapport publiceras.
+Lägg till i kalender
+Finansiell stabilitet 2024:2 publiceras
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-11-142/
+Summary: Riksbanken håller en pressträff om finansiell stabilitet. För att delta krävs presslegitimation eller motsvarande. Presskonferensen direktsänds på riksbank.se och på Riksbankens Youtube-kanal.
+Plats: Riksbanken, Brunkebergstorg
+Lägg till i kalender
+Pressträff om finansiell stabilitetsrapport
+(ics)</t>
+  </si>
+  <si>
+    <t>dec 2024</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-12-04/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-12-10/
+Summary: Lägg till i kalender
+Direktionen sammanträder
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-12-18/
+Summary: Direktionen sammanträder. Penningpolitiskt möte där direktionen fattar beslut om penningpolitiken inklusive styrräntan.
+Lägg till i kalender
+Penningpolitiskt möte: Beslut om penningpolitiken inklusive styrräntan
+(ics)</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-12-19/
+Summary: Direktionens penningpolitiska beslut inklusive beslut om styrräntan publiceras tillsammans med penningpolitisk rapport december 2024.
+Beslutet om styrräntans nivå tillämpas från 8 januari 2025.
+Lägg till i kalender
+Publicering av penningpolitiskt beslut, inklusive styrräntan, och penningpolitisk rapport
+(ics)</t>
+  </si>
+  <si>
+    <t>Pressträff om det penningpolitiska beslutet i december</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2024-12-192/
+Summary: Riksbanken arrangerar en pressträff om det penningpolitiska beslutet. Pressträffen äger rum på Riksbanken, Brunkebergstorg 11. För att delta krävs presslegitimation eller motsvarande. Pressträffen direktsänds på riksbank.se och på Riksbankens Youtube-kanal.
+Plats: Riksbanken, Brunkebergstorg
+Lägg till i kalender
+Pressträff om det penningpolitiska beslutet i december
+(ics)</t>
+  </si>
+  <si>
+    <t>jan 2025</t>
+  </si>
+  <si>
+    <t>Link: /sv/press-och-publicerat/kalender/kalender-2024/2025-01-02/
+Summary: Protokoll från penningpolitiskt möte den 18 december 2024 publiceras.
+Lägg till i kalender
+Penningpolitiskt protokoll publiceras
+(ics)</t>
   </si>
 </sst>
 </file>
@@ -402,15 +871,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D22E588-7EA4-420A-A5E7-6DA6B138A299}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="85.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -436,6 +906,567 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
